--- a/22808.xlsx
+++ b/22808.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="291">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -48,6 +48,9 @@
     <t>13-sep</t>
   </si>
   <si>
+    <t>15-sep</t>
+  </si>
+  <si>
     <t>mmdohmen@hotmail.com</t>
   </si>
   <si>
@@ -162,6 +165,549 @@
     <t>Lopez</t>
   </si>
   <si>
+    <t>marcar15@hotmail.com</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>Verstraeten</t>
+  </si>
+  <si>
+    <t>fedezv@gmail.com</t>
+  </si>
+  <si>
+    <t>Zunino Ventura</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>britosmarialuz@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria Luz</t>
+  </si>
+  <si>
+    <t>Britos</t>
+  </si>
+  <si>
+    <t>juliandandrea@gmail.com</t>
+  </si>
+  <si>
+    <t>Hector Julian</t>
+  </si>
+  <si>
+    <t>D'Andrea</t>
+  </si>
+  <si>
+    <t>rodrigo.cabral1318@gmail.com</t>
+  </si>
+  <si>
+    <t>Rodrigo Emanuel</t>
+  </si>
+  <si>
+    <t>Cabral</t>
+  </si>
+  <si>
+    <t>scsp83@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Slavec</t>
+  </si>
+  <si>
+    <t>leancapacitacion@gmail.com</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>VALERO</t>
+  </si>
+  <si>
+    <t>glauradiaz20@gmail.com</t>
+  </si>
+  <si>
+    <t>Gladys Laura</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>Leoz42@hotmail.com</t>
+  </si>
+  <si>
+    <t>Pedro Leandro</t>
+  </si>
+  <si>
+    <t>Zarate</t>
+  </si>
+  <si>
+    <t>federicobarderi@hotmail.com</t>
+  </si>
+  <si>
+    <t>Federico Martin</t>
+  </si>
+  <si>
+    <t>Barderi</t>
+  </si>
+  <si>
+    <t>alerosenfeld85@gmail.com</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Rosenfeld</t>
+  </si>
+  <si>
+    <t>cristiandcollazo@gmail.com</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Collazo</t>
+  </si>
+  <si>
+    <t>cerrudoanalia@gmail.com</t>
+  </si>
+  <si>
+    <t>Analia</t>
+  </si>
+  <si>
+    <t>Cerrudo</t>
+  </si>
+  <si>
+    <t>nicochiesa01@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>seba.guzman13@gmail.com</t>
+  </si>
+  <si>
+    <t>Sebastián Javier</t>
+  </si>
+  <si>
+    <t>Guzmán</t>
+  </si>
+  <si>
+    <t>juansalustio@hotmail.com</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Salustio</t>
+  </si>
+  <si>
+    <t>agosmgp@gmail.com</t>
+  </si>
+  <si>
+    <t>Agostina Mayra</t>
+  </si>
+  <si>
+    <t>Gatti Pérsico</t>
+  </si>
+  <si>
+    <t>marilin.rodriguez.mercanzini@gmail.com</t>
+  </si>
+  <si>
+    <t>Marilin</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>miguezflorencia@gmail.com</t>
+  </si>
+  <si>
+    <t>Florencia Daniela</t>
+  </si>
+  <si>
+    <t>Miguez Oliverio</t>
+  </si>
+  <si>
+    <t>karen.pigni.estudio@gmail.com</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Pigni</t>
+  </si>
+  <si>
+    <t>yoezito91@gmail.com</t>
+  </si>
+  <si>
+    <t>Yoel</t>
+  </si>
+  <si>
+    <t>Zito</t>
+  </si>
+  <si>
+    <t>christian.cabrera@hotmail.com</t>
+  </si>
+  <si>
+    <t>Christian Javier</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>matiasezequielsosa@gmail.com</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>leamsi.25.cic@gmail.com</t>
+  </si>
+  <si>
+    <t>cristian</t>
+  </si>
+  <si>
+    <t>castillo</t>
+  </si>
+  <si>
+    <t>antonelamaldonado@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>Antonela</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t>julian.fanjul.dev@gmail.com</t>
+  </si>
+  <si>
+    <t>julian</t>
+  </si>
+  <si>
+    <t>fanjul</t>
+  </si>
+  <si>
+    <t>lange_gaston@hotmail.com</t>
+  </si>
+  <si>
+    <t>gaston</t>
+  </si>
+  <si>
+    <t>langellotti</t>
+  </si>
+  <si>
+    <t>fernandomongelos911@gmail.com</t>
+  </si>
+  <si>
+    <t>Fernando David</t>
+  </si>
+  <si>
+    <t>Mongelos</t>
+  </si>
+  <si>
+    <t>federicodanieltrotta@hotmail.com</t>
+  </si>
+  <si>
+    <t>Federico Daniel</t>
+  </si>
+  <si>
+    <t>Trotta Mercado</t>
+  </si>
+  <si>
+    <t>karentolabaarana@gmail.com</t>
+  </si>
+  <si>
+    <t>Tolaba Arana</t>
+  </si>
+  <si>
+    <t>rodrivak@gmail.com</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Vaca</t>
+  </si>
+  <si>
+    <t>lucia.felicioni.lf@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Felicioni</t>
+  </si>
+  <si>
+    <t>villa.luisezequiel@gmail.com</t>
+  </si>
+  <si>
+    <t>Luis Ezequiel</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>laruevelyn@gmail.com</t>
+  </si>
+  <si>
+    <t>Lara Evelyn</t>
+  </si>
+  <si>
+    <t>Baranowski Calvet</t>
+  </si>
+  <si>
+    <t>villa.joseluisjr@gmail.com</t>
+  </si>
+  <si>
+    <t>José Luis Junior</t>
+  </si>
+  <si>
+    <t>capiedra@hotmail.com</t>
+  </si>
+  <si>
+    <t>Carlos Alfredo</t>
+  </si>
+  <si>
+    <t>Piedrahita Rodriguez</t>
+  </si>
+  <si>
+    <t>frankfeas@gmail.com</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Astudillo</t>
+  </si>
+  <si>
+    <t>juarezmariana18@gmail.com</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Juarez</t>
+  </si>
+  <si>
+    <t>sosamoncada30@gmail.com</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>sosa</t>
+  </si>
+  <si>
+    <t>prof.jahz@gmail.com</t>
+  </si>
+  <si>
+    <t>Jesús Alejandro</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>velortizca@gmail.com</t>
+  </si>
+  <si>
+    <t>Yesenia</t>
+  </si>
+  <si>
+    <t>Velásquez</t>
+  </si>
+  <si>
+    <t>maxabdeneve@gmail.com</t>
+  </si>
+  <si>
+    <t>Maximiliano</t>
+  </si>
+  <si>
+    <t>Abdeneve</t>
+  </si>
+  <si>
+    <t>dra.gabrielapalmeyro@gmail.com</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Palmeyro</t>
+  </si>
+  <si>
+    <t>luzflor2007@gmail.com</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>laurabalejandro@gmail.com</t>
+  </si>
+  <si>
+    <t>Laura Beatriz</t>
+  </si>
+  <si>
+    <t>antodileti@gmail.com</t>
+  </si>
+  <si>
+    <t>Leticia Antonela</t>
+  </si>
+  <si>
+    <t>Dimotta</t>
+  </si>
+  <si>
+    <t>giulianodesanta@gmail.com</t>
+  </si>
+  <si>
+    <t>Giuliano</t>
+  </si>
+  <si>
+    <t>Gullo</t>
+  </si>
+  <si>
+    <t>mcortegana@hotmail.com</t>
+  </si>
+  <si>
+    <t>martin</t>
+  </si>
+  <si>
+    <t>cortegana</t>
+  </si>
+  <si>
+    <t>german_bogado@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>German Eduardo</t>
+  </si>
+  <si>
+    <t>Bogado</t>
+  </si>
+  <si>
+    <t>nicolasmartinalvarez85@gmail.com</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>santiago.avalos@outlook.com</t>
+  </si>
+  <si>
+    <t>Santiago Germán</t>
+  </si>
+  <si>
+    <t>Avalos</t>
+  </si>
+  <si>
+    <t>embkkr@gmail.com</t>
+  </si>
+  <si>
+    <t>Kyu Im</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>leslietovaraguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>LESLIE VIVIANA</t>
+  </si>
+  <si>
+    <t>TOVAR AGUILAR</t>
+  </si>
+  <si>
+    <t>enriquejgimeno@gmail.com</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Gimeno</t>
+  </si>
+  <si>
+    <t>miyashiro.kevin@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Miyashiro</t>
+  </si>
+  <si>
+    <t>camilaikkert@gmail.com</t>
+  </si>
+  <si>
+    <t>Camila Milena</t>
+  </si>
+  <si>
+    <t>Ikkert</t>
+  </si>
+  <si>
+    <t>barconadia38@gmail.com</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Barco</t>
+  </si>
+  <si>
+    <t>lupalazzo@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>Palazzo</t>
+  </si>
+  <si>
+    <t>mariana.tapia203@gmail.com</t>
+  </si>
+  <si>
+    <t>Tapia</t>
+  </si>
+  <si>
+    <t>gabriel_martinez_2409@hotmail.es</t>
+  </si>
+  <si>
+    <t>Marcos Gabriel</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>cbritez6@gmail.com</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Acevedo</t>
+  </si>
+  <si>
+    <t>mracca17@gmail.com</t>
+  </si>
+  <si>
+    <t>Marina Alejandra</t>
+  </si>
+  <si>
+    <t>Racca</t>
+  </si>
+  <si>
     <t>emilmarpatricia@gmail.com</t>
   </si>
   <si>
@@ -171,60 +717,6 @@
     <t>Cuarez</t>
   </si>
   <si>
-    <t>marcar15@hotmail.com</t>
-  </si>
-  <si>
-    <t>Martín</t>
-  </si>
-  <si>
-    <t>Verstraeten</t>
-  </si>
-  <si>
-    <t>fedezv@gmail.com</t>
-  </si>
-  <si>
-    <t>Zunino Ventura</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>britosmarialuz@gmail.com</t>
-  </si>
-  <si>
-    <t>Maria Luz</t>
-  </si>
-  <si>
-    <t>Britos</t>
-  </si>
-  <si>
-    <t>juliandandrea@gmail.com</t>
-  </si>
-  <si>
-    <t>Hector Julian</t>
-  </si>
-  <si>
-    <t>D'Andrea</t>
-  </si>
-  <si>
-    <t>rodrigo.cabral1318@gmail.com</t>
-  </si>
-  <si>
-    <t>Rodrigo Emanuel</t>
-  </si>
-  <si>
-    <t>Cabral</t>
-  </si>
-  <si>
-    <t>scsp83@hotmail.com</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
-    <t>Slavec</t>
-  </si>
-  <si>
     <t>sebdelgado83@gmail.com</t>
   </si>
   <si>
@@ -234,42 +726,6 @@
     <t>Delgado</t>
   </si>
   <si>
-    <t>leancapacitacion@gmail.com</t>
-  </si>
-  <si>
-    <t>Leandro</t>
-  </si>
-  <si>
-    <t>VALERO</t>
-  </si>
-  <si>
-    <t>glauradiaz20@gmail.com</t>
-  </si>
-  <si>
-    <t>Gladys Laura</t>
-  </si>
-  <si>
-    <t>Mercado</t>
-  </si>
-  <si>
-    <t>Leoz42@hotmail.com</t>
-  </si>
-  <si>
-    <t>Pedro Leandro</t>
-  </si>
-  <si>
-    <t>Zarate</t>
-  </si>
-  <si>
-    <t>federicobarderi@hotmail.com</t>
-  </si>
-  <si>
-    <t>Federico Martin</t>
-  </si>
-  <si>
-    <t>Barderi</t>
-  </si>
-  <si>
     <t>guerrerofabian1985@gmail.com</t>
   </si>
   <si>
@@ -279,51 +735,6 @@
     <t>Guerrero</t>
   </si>
   <si>
-    <t>alerosenfeld85@gmail.com</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Rosenfeld</t>
-  </si>
-  <si>
-    <t>cristiandcollazo@gmail.com</t>
-  </si>
-  <si>
-    <t>Cristian</t>
-  </si>
-  <si>
-    <t>Collazo</t>
-  </si>
-  <si>
-    <t>cerrudoanalia@gmail.com</t>
-  </si>
-  <si>
-    <t>Analia</t>
-  </si>
-  <si>
-    <t>Cerrudo</t>
-  </si>
-  <si>
-    <t>nicochiesa01@gmail.com</t>
-  </si>
-  <si>
-    <t>Nicolás</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>seba.guzman13@gmail.com</t>
-  </si>
-  <si>
-    <t>Sebastián Javier</t>
-  </si>
-  <si>
-    <t>Guzmán</t>
-  </si>
-  <si>
     <t>germanlasserre@gmail.com</t>
   </si>
   <si>
@@ -333,24 +744,6 @@
     <t>Lasserre</t>
   </si>
   <si>
-    <t>juansalustio@hotmail.com</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Salustio</t>
-  </si>
-  <si>
-    <t>agosmgp@gmail.com</t>
-  </si>
-  <si>
-    <t>Agostina Mayra</t>
-  </si>
-  <si>
-    <t>Gatti Pérsico</t>
-  </si>
-  <si>
     <t>michelettimatias@gmail.com</t>
   </si>
   <si>
@@ -360,96 +753,6 @@
     <t>Micheletti</t>
   </si>
   <si>
-    <t>marilin.rodriguez.mercanzini@gmail.com</t>
-  </si>
-  <si>
-    <t>Marilin</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>miguezflorencia@gmail.com</t>
-  </si>
-  <si>
-    <t>Florencia Daniela</t>
-  </si>
-  <si>
-    <t>Miguez Oliverio</t>
-  </si>
-  <si>
-    <t>karen.pigni.estudio@gmail.com</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Pigni</t>
-  </si>
-  <si>
-    <t>yoezito91@gmail.com</t>
-  </si>
-  <si>
-    <t>Yoel</t>
-  </si>
-  <si>
-    <t>Zito</t>
-  </si>
-  <si>
-    <t>christian.cabrera@hotmail.com</t>
-  </si>
-  <si>
-    <t>Christian Javier</t>
-  </si>
-  <si>
-    <t>Cabrera</t>
-  </si>
-  <si>
-    <t>matiasezequielsosa@gmail.com</t>
-  </si>
-  <si>
-    <t>Matias</t>
-  </si>
-  <si>
-    <t>Sosa</t>
-  </si>
-  <si>
-    <t>leamsi.25.cic@gmail.com</t>
-  </si>
-  <si>
-    <t>cristian</t>
-  </si>
-  <si>
-    <t>castillo</t>
-  </si>
-  <si>
-    <t>antonelamaldonado@outlook.com.ar</t>
-  </si>
-  <si>
-    <t>Antonela</t>
-  </si>
-  <si>
-    <t>Maldonado</t>
-  </si>
-  <si>
-    <t>julian.fanjul.dev@gmail.com</t>
-  </si>
-  <si>
-    <t>julian</t>
-  </si>
-  <si>
-    <t>fanjul</t>
-  </si>
-  <si>
-    <t>lange_gaston@hotmail.com</t>
-  </si>
-  <si>
-    <t>gaston</t>
-  </si>
-  <si>
-    <t>langellotti</t>
-  </si>
-  <si>
     <t>gallardomarina93@gmail.com</t>
   </si>
   <si>
@@ -459,39 +762,6 @@
     <t>Gallardo</t>
   </si>
   <si>
-    <t>fernandomongelos911@gmail.com</t>
-  </si>
-  <si>
-    <t>Fernando David</t>
-  </si>
-  <si>
-    <t>Mongelos</t>
-  </si>
-  <si>
-    <t>federicodanieltrotta@hotmail.com</t>
-  </si>
-  <si>
-    <t>Federico Daniel</t>
-  </si>
-  <si>
-    <t>Trotta Mercado</t>
-  </si>
-  <si>
-    <t>karentolabaarana@gmail.com</t>
-  </si>
-  <si>
-    <t>Tolaba Arana</t>
-  </si>
-  <si>
-    <t>rodrivak@gmail.com</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Vaca</t>
-  </si>
-  <si>
     <t>baqueiroramironahuel@gmail.com</t>
   </si>
   <si>
@@ -501,102 +771,6 @@
     <t>Baqueiro</t>
   </si>
   <si>
-    <t>lucia.felicioni.lf@gmail.com</t>
-  </si>
-  <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Felicioni</t>
-  </si>
-  <si>
-    <t>villa.luisezequiel@gmail.com</t>
-  </si>
-  <si>
-    <t>Luis Ezequiel</t>
-  </si>
-  <si>
-    <t>Villa</t>
-  </si>
-  <si>
-    <t>laruevelyn@gmail.com</t>
-  </si>
-  <si>
-    <t>Lara Evelyn</t>
-  </si>
-  <si>
-    <t>Baranowski Calvet</t>
-  </si>
-  <si>
-    <t>villa.joseluisjr@gmail.com</t>
-  </si>
-  <si>
-    <t>José Luis Junior</t>
-  </si>
-  <si>
-    <t>capiedra@hotmail.com</t>
-  </si>
-  <si>
-    <t>Carlos Alfredo</t>
-  </si>
-  <si>
-    <t>Piedrahita Rodriguez</t>
-  </si>
-  <si>
-    <t>frankfeas@gmail.com</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Astudillo</t>
-  </si>
-  <si>
-    <t>juarezmariana18@gmail.com</t>
-  </si>
-  <si>
-    <t>Mariana</t>
-  </si>
-  <si>
-    <t>Juarez</t>
-  </si>
-  <si>
-    <t>sosamoncada30@gmail.com</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-  <si>
-    <t>sosa</t>
-  </si>
-  <si>
-    <t>prof.jahz@gmail.com</t>
-  </si>
-  <si>
-    <t>Jesús Alejandro</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>velortizca@gmail.com</t>
-  </si>
-  <si>
-    <t>Yesenia</t>
-  </si>
-  <si>
-    <t>Velásquez</t>
-  </si>
-  <si>
-    <t>maxabdeneve@gmail.com</t>
-  </si>
-  <si>
-    <t>Maximiliano</t>
-  </si>
-  <si>
-    <t>Abdeneve</t>
-  </si>
-  <si>
     <t>alonso.maeuge@gmail.com</t>
   </si>
   <si>
@@ -606,54 +780,12 @@
     <t>Alonso</t>
   </si>
   <si>
-    <t>dra.gabrielapalmeyro@gmail.com</t>
-  </si>
-  <si>
-    <t>Gabriela</t>
-  </si>
-  <si>
-    <t>Palmeyro</t>
-  </si>
-  <si>
-    <t>luzflor2007@gmail.com</t>
-  </si>
-  <si>
-    <t>Luz</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>laurabalejandro@gmail.com</t>
-  </si>
-  <si>
-    <t>Laura Beatriz</t>
-  </si>
-  <si>
     <t>edgar_eel@hotmail.com</t>
   </si>
   <si>
     <t>Edgar Eduardo</t>
   </si>
   <si>
-    <t>antodileti@gmail.com</t>
-  </si>
-  <si>
-    <t>Leticia Antonela</t>
-  </si>
-  <si>
-    <t>Dimotta</t>
-  </si>
-  <si>
-    <t>giulianodesanta@gmail.com</t>
-  </si>
-  <si>
-    <t>Giuliano</t>
-  </si>
-  <si>
-    <t>Gullo</t>
-  </si>
-  <si>
     <t>joaquinvcestudio@gmail.com</t>
   </si>
   <si>
@@ -663,15 +795,6 @@
     <t>Vásquez Calizaya</t>
   </si>
   <si>
-    <t>mcortegana@hotmail.com</t>
-  </si>
-  <si>
-    <t>martin</t>
-  </si>
-  <si>
-    <t>cortegana</t>
-  </si>
-  <si>
     <t>onacho83@gmail.com</t>
   </si>
   <si>
@@ -681,30 +804,6 @@
     <t>Barboza</t>
   </si>
   <si>
-    <t>german_bogado@yahoo.com.ar</t>
-  </si>
-  <si>
-    <t>German Eduardo</t>
-  </si>
-  <si>
-    <t>Bogado</t>
-  </si>
-  <si>
-    <t>nicolasmartinalvarez85@gmail.com</t>
-  </si>
-  <si>
-    <t>Alvarez</t>
-  </si>
-  <si>
-    <t>santiago.avalos@outlook.com</t>
-  </si>
-  <si>
-    <t>Santiago Germán</t>
-  </si>
-  <si>
-    <t>Avalos</t>
-  </si>
-  <si>
     <t>santigiopo3@gmail.com</t>
   </si>
   <si>
@@ -714,15 +813,6 @@
     <t>Giordano</t>
   </si>
   <si>
-    <t>embkkr@gmail.com</t>
-  </si>
-  <si>
-    <t>Kyu Im</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
     <t>avkavrecic@gmail.com</t>
   </si>
   <si>
@@ -732,51 +822,6 @@
     <t>Kavrecic</t>
   </si>
   <si>
-    <t>leslietovaraguilar@gmail.com</t>
-  </si>
-  <si>
-    <t>LESLIE VIVIANA</t>
-  </si>
-  <si>
-    <t>TOVAR AGUILAR</t>
-  </si>
-  <si>
-    <t>enriquejgimeno@gmail.com</t>
-  </si>
-  <si>
-    <t>Enrique</t>
-  </si>
-  <si>
-    <t>Gimeno</t>
-  </si>
-  <si>
-    <t>miyashiro.kevin@gmail.com</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Miyashiro</t>
-  </si>
-  <si>
-    <t>camilaikkert@gmail.com</t>
-  </si>
-  <si>
-    <t>Camila Milena</t>
-  </si>
-  <si>
-    <t>Ikkert</t>
-  </si>
-  <si>
-    <t>barconadia38@gmail.com</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>Barco</t>
-  </si>
-  <si>
     <t>villagranmceleste@gmail.com</t>
   </si>
   <si>
@@ -786,30 +831,6 @@
     <t>Villagran</t>
   </si>
   <si>
-    <t>lupalazzo@gmail.com</t>
-  </si>
-  <si>
-    <t>Lucía</t>
-  </si>
-  <si>
-    <t>Palazzo</t>
-  </si>
-  <si>
-    <t>mariana.tapia203@gmail.com</t>
-  </si>
-  <si>
-    <t>Tapia</t>
-  </si>
-  <si>
-    <t>gabriel_martinez_2409@hotmail.es</t>
-  </si>
-  <si>
-    <t>Marcos Gabriel</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
     <t>ruben.humar@hotmail.com</t>
   </si>
   <si>
@@ -819,15 +840,6 @@
     <t>Humar</t>
   </si>
   <si>
-    <t>cbritez6@gmail.com</t>
-  </si>
-  <si>
-    <t>Cecilia</t>
-  </si>
-  <si>
-    <t>Acevedo</t>
-  </si>
-  <si>
     <t>lunaflorencia96@gmail.com</t>
   </si>
   <si>
@@ -871,15 +883,6 @@
   </si>
   <si>
     <t>caggiano</t>
-  </si>
-  <si>
-    <t>mracca17@gmail.com</t>
-  </si>
-  <si>
-    <t>Marina Alejandra</t>
-  </si>
-  <si>
-    <t>Racca</t>
   </si>
   <si>
     <t>marcela.cerda@bue.edu.ar</t>
@@ -1338,10 +1341,12 @@
       <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3">
-        <v>44819</v>
-      </c>
-      <c r="M1" s="5"/>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3">
+        <v>44824</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -1358,39 +1363,41 @@
         <v>22808</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1407,39 +1414,41 @@
         <v>22808</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -1456,39 +1465,41 @@
         <v>22808</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -1505,39 +1516,41 @@
         <v>22808</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -1554,39 +1567,41 @@
         <v>22808</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -1603,39 +1618,41 @@
         <v>22808</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -1652,39 +1669,41 @@
         <v>22808</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1701,39 +1720,41 @@
         <v>22808</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -1750,39 +1771,41 @@
         <v>22808</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -1799,39 +1822,41 @@
         <v>22808</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -1848,39 +1873,41 @@
         <v>22808</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -1897,39 +1924,41 @@
         <v>22808</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1946,39 +1975,41 @@
         <v>22808</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1995,39 +2026,41 @@
         <v>22808</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -2044,39 +2077,41 @@
         <v>22808</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -2093,39 +2128,41 @@
         <v>22808</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -2142,39 +2179,41 @@
         <v>22808</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -2191,39 +2230,41 @@
         <v>22808</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -2240,39 +2281,41 @@
         <v>22808</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -2289,39 +2332,41 @@
         <v>22808</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>11</v>
+      <c r="E21" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -2338,39 +2383,41 @@
         <v>22808</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>30</v>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -2387,39 +2434,41 @@
         <v>22808</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -2436,39 +2485,41 @@
         <v>22808</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
@@ -2485,39 +2536,41 @@
         <v>22808</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -2534,39 +2587,41 @@
         <v>22808</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -2583,39 +2638,41 @@
         <v>22808</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -2632,39 +2689,41 @@
         <v>22808</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -2681,39 +2740,41 @@
         <v>22808</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -2730,39 +2791,41 @@
         <v>22808</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -2779,39 +2842,41 @@
         <v>22808</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -2828,39 +2893,41 @@
         <v>22808</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -2877,39 +2944,41 @@
         <v>22808</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -2926,39 +2995,41 @@
         <v>22808</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
@@ -2975,39 +3046,41 @@
         <v>22808</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -3024,39 +3097,41 @@
         <v>22808</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -3073,39 +3148,41 @@
         <v>22808</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -3122,39 +3199,41 @@
         <v>22808</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>11</v>
+        <v>124</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -3171,39 +3250,41 @@
         <v>22808</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -3220,39 +3301,41 @@
         <v>22808</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>30</v>
+        <v>130</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -3269,39 +3352,41 @@
         <v>22808</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -3318,39 +3403,41 @@
         <v>22808</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -3367,39 +3454,41 @@
         <v>22808</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M43" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -3416,39 +3505,41 @@
         <v>22808</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -3465,39 +3556,41 @@
         <v>22808</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M45" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -3514,39 +3607,41 @@
         <v>22808</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M46" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -3563,39 +3658,41 @@
         <v>22808</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M47" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
@@ -3612,39 +3709,41 @@
         <v>22808</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
@@ -3661,39 +3760,41 @@
         <v>22808</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>11</v>
+        <v>155</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M49" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -3710,39 +3811,41 @@
         <v>22808</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>30</v>
+        <v>158</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
@@ -3759,39 +3862,41 @@
         <v>22808</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M51" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -3808,39 +3913,41 @@
         <v>22808</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M52" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
@@ -3857,39 +3964,41 @@
         <v>22808</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M53" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -3906,39 +4015,41 @@
         <v>22808</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
@@ -3955,39 +4066,41 @@
         <v>22808</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M55" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
@@ -4004,88 +4117,92 @@
         <v>22808</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>22808</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
@@ -4102,39 +4219,41 @@
         <v>22808</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>11</v>
+        <v>187</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M58" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
@@ -4151,39 +4270,41 @@
         <v>22808</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M59" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
@@ -4200,39 +4321,41 @@
         <v>22808</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M60" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
@@ -4249,39 +4372,41 @@
         <v>22808</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M61" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
@@ -4298,39 +4423,41 @@
         <v>22808</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M62" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
@@ -4347,39 +4474,41 @@
         <v>22808</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M63" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
@@ -4396,39 +4525,41 @@
         <v>22808</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
@@ -4445,39 +4576,41 @@
         <v>22808</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M65" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
@@ -4494,39 +4627,41 @@
         <v>22808</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>30</v>
+        <v>216</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M66" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
@@ -4543,39 +4678,41 @@
         <v>22808</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M67" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
@@ -4592,39 +4729,41 @@
         <v>22808</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M68" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
@@ -4641,39 +4780,41 @@
         <v>22808</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
@@ -4690,39 +4831,41 @@
         <v>22808</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M70" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
@@ -4739,39 +4882,41 @@
         <v>22808</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M71" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
@@ -4788,39 +4933,41 @@
         <v>22808</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M72" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
@@ -4837,39 +4984,41 @@
         <v>22808</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>30</v>
+        <v>248</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M73" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
@@ -4886,39 +5035,41 @@
         <v>22808</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M74" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
@@ -4935,39 +5086,41 @@
         <v>22808</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M75" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
@@ -4984,39 +5137,41 @@
         <v>22808</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M76" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
@@ -5033,39 +5188,41 @@
         <v>22808</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
@@ -5082,39 +5239,41 @@
         <v>22808</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
@@ -5131,39 +5290,41 @@
         <v>22808</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>30</v>
+        <v>271</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M79" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
@@ -5180,39 +5341,41 @@
         <v>22808</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
@@ -5229,88 +5392,92 @@
         <v>22808</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>22808</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
@@ -5330,36 +5497,38 @@
         <v>191</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="E83" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
@@ -5376,39 +5545,41 @@
         <v>22808</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
@@ -5425,39 +5596,41 @@
         <v>22808</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L85" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M85" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
@@ -5474,39 +5647,41 @@
         <v>22808</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>11</v>
+        <v>221</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L86" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M86" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
@@ -5523,39 +5698,41 @@
         <v>22808</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
@@ -5572,39 +5749,41 @@
         <v>22808</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>30</v>
+        <v>239</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
@@ -5621,39 +5800,41 @@
         <v>22808</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M89" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
@@ -5670,39 +5851,41 @@
         <v>22808</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="E90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
@@ -5719,39 +5902,41 @@
         <v>22808</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M91" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
@@ -5768,39 +5953,41 @@
         <v>22808</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M92" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
@@ -5817,39 +6004,41 @@
         <v>22808</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M93" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
@@ -5866,39 +6055,41 @@
         <v>22808</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M94" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
@@ -5915,39 +6106,41 @@
         <v>22808</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M95" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
@@ -5964,39 +6157,41 @@
         <v>22808</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M96" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="M96" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N96" s="14"/>
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
@@ -6660,7 +6855,7 @@
     </row>
     <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -28438,7 +28633,7 @@
   </sheetData>
   <autoFilter ref="A1:W993">
     <sortState ref="A2:Z993">
-      <sortCondition ref="L1:L993"/>
+      <sortCondition ref="M1:M993"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/22808.xlsx
+++ b/22808.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="292">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -51,6 +51,9 @@
     <t>15-sep</t>
   </si>
   <si>
+    <t>20-sep</t>
+  </si>
+  <si>
     <t>mmdohmen@hotmail.com</t>
   </si>
   <si>
@@ -192,6 +195,567 @@
     <t>Britos</t>
   </si>
   <si>
+    <t>rodrigo.cabral1318@gmail.com</t>
+  </si>
+  <si>
+    <t>Rodrigo Emanuel</t>
+  </si>
+  <si>
+    <t>Cabral</t>
+  </si>
+  <si>
+    <t>scsp83@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Slavec</t>
+  </si>
+  <si>
+    <t>leancapacitacion@gmail.com</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>VALERO</t>
+  </si>
+  <si>
+    <t>glauradiaz20@gmail.com</t>
+  </si>
+  <si>
+    <t>Gladys Laura</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>Leoz42@hotmail.com</t>
+  </si>
+  <si>
+    <t>Pedro Leandro</t>
+  </si>
+  <si>
+    <t>Zarate</t>
+  </si>
+  <si>
+    <t>federicobarderi@hotmail.com</t>
+  </si>
+  <si>
+    <t>Federico Martin</t>
+  </si>
+  <si>
+    <t>Barderi</t>
+  </si>
+  <si>
+    <t>alerosenfeld85@gmail.com</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Rosenfeld</t>
+  </si>
+  <si>
+    <t>cristiandcollazo@gmail.com</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Collazo</t>
+  </si>
+  <si>
+    <t>cerrudoanalia@gmail.com</t>
+  </si>
+  <si>
+    <t>Analia</t>
+  </si>
+  <si>
+    <t>Cerrudo</t>
+  </si>
+  <si>
+    <t>nicochiesa01@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>seba.guzman13@gmail.com</t>
+  </si>
+  <si>
+    <t>Sebastián Javier</t>
+  </si>
+  <si>
+    <t>Guzmán</t>
+  </si>
+  <si>
+    <t>juansalustio@hotmail.com</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Salustio</t>
+  </si>
+  <si>
+    <t>agosmgp@gmail.com</t>
+  </si>
+  <si>
+    <t>Agostina Mayra</t>
+  </si>
+  <si>
+    <t>Gatti Pérsico</t>
+  </si>
+  <si>
+    <t>marilin.rodriguez.mercanzini@gmail.com</t>
+  </si>
+  <si>
+    <t>Marilin</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>miguezflorencia@gmail.com</t>
+  </si>
+  <si>
+    <t>Florencia Daniela</t>
+  </si>
+  <si>
+    <t>Miguez Oliverio</t>
+  </si>
+  <si>
+    <t>karen.pigni.estudio@gmail.com</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Pigni</t>
+  </si>
+  <si>
+    <t>yoezito91@gmail.com</t>
+  </si>
+  <si>
+    <t>Yoel</t>
+  </si>
+  <si>
+    <t>Zito</t>
+  </si>
+  <si>
+    <t>christian.cabrera@hotmail.com</t>
+  </si>
+  <si>
+    <t>Christian Javier</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>matiasezequielsosa@gmail.com</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>leamsi.25.cic@gmail.com</t>
+  </si>
+  <si>
+    <t>cristian</t>
+  </si>
+  <si>
+    <t>castillo</t>
+  </si>
+  <si>
+    <t>antonelamaldonado@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>Antonela</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t>julian.fanjul.dev@gmail.com</t>
+  </si>
+  <si>
+    <t>julian</t>
+  </si>
+  <si>
+    <t>fanjul</t>
+  </si>
+  <si>
+    <t>lange_gaston@hotmail.com</t>
+  </si>
+  <si>
+    <t>gaston</t>
+  </si>
+  <si>
+    <t>langellotti</t>
+  </si>
+  <si>
+    <t>fernandomongelos911@gmail.com</t>
+  </si>
+  <si>
+    <t>Fernando David</t>
+  </si>
+  <si>
+    <t>Mongelos</t>
+  </si>
+  <si>
+    <t>federicodanieltrotta@hotmail.com</t>
+  </si>
+  <si>
+    <t>Federico Daniel</t>
+  </si>
+  <si>
+    <t>Trotta Mercado</t>
+  </si>
+  <si>
+    <t>karentolabaarana@gmail.com</t>
+  </si>
+  <si>
+    <t>Tolaba Arana</t>
+  </si>
+  <si>
+    <t>rodrivak@gmail.com</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Vaca</t>
+  </si>
+  <si>
+    <t>lucia.felicioni.lf@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Felicioni</t>
+  </si>
+  <si>
+    <t>villa.luisezequiel@gmail.com</t>
+  </si>
+  <si>
+    <t>Luis Ezequiel</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>laruevelyn@gmail.com</t>
+  </si>
+  <si>
+    <t>Lara Evelyn</t>
+  </si>
+  <si>
+    <t>Baranowski Calvet</t>
+  </si>
+  <si>
+    <t>villa.joseluisjr@gmail.com</t>
+  </si>
+  <si>
+    <t>José Luis Junior</t>
+  </si>
+  <si>
+    <t>capiedra@hotmail.com</t>
+  </si>
+  <si>
+    <t>Carlos Alfredo</t>
+  </si>
+  <si>
+    <t>Piedrahita Rodriguez</t>
+  </si>
+  <si>
+    <t>frankfeas@gmail.com</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Astudillo</t>
+  </si>
+  <si>
+    <t>juarezmariana18@gmail.com</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Juarez</t>
+  </si>
+  <si>
+    <t>sosamoncada30@gmail.com</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>sosa</t>
+  </si>
+  <si>
+    <t>prof.jahz@gmail.com</t>
+  </si>
+  <si>
+    <t>Jesús Alejandro</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>velortizca@gmail.com</t>
+  </si>
+  <si>
+    <t>Yesenia</t>
+  </si>
+  <si>
+    <t>Velásquez</t>
+  </si>
+  <si>
+    <t>maxabdeneve@gmail.com</t>
+  </si>
+  <si>
+    <t>Maximiliano</t>
+  </si>
+  <si>
+    <t>Abdeneve</t>
+  </si>
+  <si>
+    <t>luzflor2007@gmail.com</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>antodileti@gmail.com</t>
+  </si>
+  <si>
+    <t>Leticia Antonela</t>
+  </si>
+  <si>
+    <t>Dimotta</t>
+  </si>
+  <si>
+    <t>giulianodesanta@gmail.com</t>
+  </si>
+  <si>
+    <t>Giuliano</t>
+  </si>
+  <si>
+    <t>Gullo</t>
+  </si>
+  <si>
+    <t>mcortegana@hotmail.com</t>
+  </si>
+  <si>
+    <t>martin</t>
+  </si>
+  <si>
+    <t>cortegana</t>
+  </si>
+  <si>
+    <t>german_bogado@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>German Eduardo</t>
+  </si>
+  <si>
+    <t>Bogado</t>
+  </si>
+  <si>
+    <t>santiago.avalos@outlook.com</t>
+  </si>
+  <si>
+    <t>Santiago Germán</t>
+  </si>
+  <si>
+    <t>Avalos</t>
+  </si>
+  <si>
+    <t>leslietovaraguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>LESLIE VIVIANA</t>
+  </si>
+  <si>
+    <t>TOVAR AGUILAR</t>
+  </si>
+  <si>
+    <t>enriquejgimeno@gmail.com</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Gimeno</t>
+  </si>
+  <si>
+    <t>miyashiro.kevin@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Miyashiro</t>
+  </si>
+  <si>
+    <t>camilaikkert@gmail.com</t>
+  </si>
+  <si>
+    <t>Camila Milena</t>
+  </si>
+  <si>
+    <t>Ikkert</t>
+  </si>
+  <si>
+    <t>barconadia38@gmail.com</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Barco</t>
+  </si>
+  <si>
+    <t>lupalazzo@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>Palazzo</t>
+  </si>
+  <si>
+    <t>cbritez6@gmail.com</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Acevedo</t>
+  </si>
+  <si>
+    <t>mracca17@gmail.com</t>
+  </si>
+  <si>
+    <t>Marina Alejandra</t>
+  </si>
+  <si>
+    <t>Racca</t>
+  </si>
+  <si>
+    <t>sebdelgado83@gmail.com</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Delgado</t>
+  </si>
+  <si>
+    <t>guerrerofabian1985@gmail.com</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>michelettimatias@gmail.com</t>
+  </si>
+  <si>
+    <t>Matías</t>
+  </si>
+  <si>
+    <t>Micheletti</t>
+  </si>
+  <si>
+    <t>gallardomarina93@gmail.com</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Gallardo</t>
+  </si>
+  <si>
+    <t>baqueiroramironahuel@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramiro Nahuel</t>
+  </si>
+  <si>
+    <t>Baqueiro</t>
+  </si>
+  <si>
+    <t>alonso.maeuge@gmail.com</t>
+  </si>
+  <si>
+    <t>María Eugenia</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>joaquinvcestudio@gmail.com</t>
+  </si>
+  <si>
+    <t>Joaquín</t>
+  </si>
+  <si>
+    <t>Vásquez Calizaya</t>
+  </si>
+  <si>
+    <t>onacho83@gmail.com</t>
+  </si>
+  <si>
+    <t>Omar Ignacio</t>
+  </si>
+  <si>
+    <t>Barboza</t>
+  </si>
+  <si>
+    <t>avkavrecic@gmail.com</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Kavrecic</t>
+  </si>
+  <si>
+    <t>villagranmceleste@gmail.com</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>Villagran</t>
+  </si>
+  <si>
+    <t>ruben.humar@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Humar</t>
+  </si>
+  <si>
     <t>juliandandrea@gmail.com</t>
   </si>
   <si>
@@ -201,342 +765,6 @@
     <t>D'Andrea</t>
   </si>
   <si>
-    <t>rodrigo.cabral1318@gmail.com</t>
-  </si>
-  <si>
-    <t>Rodrigo Emanuel</t>
-  </si>
-  <si>
-    <t>Cabral</t>
-  </si>
-  <si>
-    <t>scsp83@hotmail.com</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
-    <t>Slavec</t>
-  </si>
-  <si>
-    <t>leancapacitacion@gmail.com</t>
-  </si>
-  <si>
-    <t>Leandro</t>
-  </si>
-  <si>
-    <t>VALERO</t>
-  </si>
-  <si>
-    <t>glauradiaz20@gmail.com</t>
-  </si>
-  <si>
-    <t>Gladys Laura</t>
-  </si>
-  <si>
-    <t>Mercado</t>
-  </si>
-  <si>
-    <t>Leoz42@hotmail.com</t>
-  </si>
-  <si>
-    <t>Pedro Leandro</t>
-  </si>
-  <si>
-    <t>Zarate</t>
-  </si>
-  <si>
-    <t>federicobarderi@hotmail.com</t>
-  </si>
-  <si>
-    <t>Federico Martin</t>
-  </si>
-  <si>
-    <t>Barderi</t>
-  </si>
-  <si>
-    <t>alerosenfeld85@gmail.com</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Rosenfeld</t>
-  </si>
-  <si>
-    <t>cristiandcollazo@gmail.com</t>
-  </si>
-  <si>
-    <t>Cristian</t>
-  </si>
-  <si>
-    <t>Collazo</t>
-  </si>
-  <si>
-    <t>cerrudoanalia@gmail.com</t>
-  </si>
-  <si>
-    <t>Analia</t>
-  </si>
-  <si>
-    <t>Cerrudo</t>
-  </si>
-  <si>
-    <t>nicochiesa01@gmail.com</t>
-  </si>
-  <si>
-    <t>Nicolás</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>seba.guzman13@gmail.com</t>
-  </si>
-  <si>
-    <t>Sebastián Javier</t>
-  </si>
-  <si>
-    <t>Guzmán</t>
-  </si>
-  <si>
-    <t>juansalustio@hotmail.com</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Salustio</t>
-  </si>
-  <si>
-    <t>agosmgp@gmail.com</t>
-  </si>
-  <si>
-    <t>Agostina Mayra</t>
-  </si>
-  <si>
-    <t>Gatti Pérsico</t>
-  </si>
-  <si>
-    <t>marilin.rodriguez.mercanzini@gmail.com</t>
-  </si>
-  <si>
-    <t>Marilin</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>miguezflorencia@gmail.com</t>
-  </si>
-  <si>
-    <t>Florencia Daniela</t>
-  </si>
-  <si>
-    <t>Miguez Oliverio</t>
-  </si>
-  <si>
-    <t>karen.pigni.estudio@gmail.com</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Pigni</t>
-  </si>
-  <si>
-    <t>yoezito91@gmail.com</t>
-  </si>
-  <si>
-    <t>Yoel</t>
-  </si>
-  <si>
-    <t>Zito</t>
-  </si>
-  <si>
-    <t>christian.cabrera@hotmail.com</t>
-  </si>
-  <si>
-    <t>Christian Javier</t>
-  </si>
-  <si>
-    <t>Cabrera</t>
-  </si>
-  <si>
-    <t>matiasezequielsosa@gmail.com</t>
-  </si>
-  <si>
-    <t>Matias</t>
-  </si>
-  <si>
-    <t>Sosa</t>
-  </si>
-  <si>
-    <t>leamsi.25.cic@gmail.com</t>
-  </si>
-  <si>
-    <t>cristian</t>
-  </si>
-  <si>
-    <t>castillo</t>
-  </si>
-  <si>
-    <t>antonelamaldonado@outlook.com.ar</t>
-  </si>
-  <si>
-    <t>Antonela</t>
-  </si>
-  <si>
-    <t>Maldonado</t>
-  </si>
-  <si>
-    <t>julian.fanjul.dev@gmail.com</t>
-  </si>
-  <si>
-    <t>julian</t>
-  </si>
-  <si>
-    <t>fanjul</t>
-  </si>
-  <si>
-    <t>lange_gaston@hotmail.com</t>
-  </si>
-  <si>
-    <t>gaston</t>
-  </si>
-  <si>
-    <t>langellotti</t>
-  </si>
-  <si>
-    <t>fernandomongelos911@gmail.com</t>
-  </si>
-  <si>
-    <t>Fernando David</t>
-  </si>
-  <si>
-    <t>Mongelos</t>
-  </si>
-  <si>
-    <t>federicodanieltrotta@hotmail.com</t>
-  </si>
-  <si>
-    <t>Federico Daniel</t>
-  </si>
-  <si>
-    <t>Trotta Mercado</t>
-  </si>
-  <si>
-    <t>karentolabaarana@gmail.com</t>
-  </si>
-  <si>
-    <t>Tolaba Arana</t>
-  </si>
-  <si>
-    <t>rodrivak@gmail.com</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Vaca</t>
-  </si>
-  <si>
-    <t>lucia.felicioni.lf@gmail.com</t>
-  </si>
-  <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Felicioni</t>
-  </si>
-  <si>
-    <t>villa.luisezequiel@gmail.com</t>
-  </si>
-  <si>
-    <t>Luis Ezequiel</t>
-  </si>
-  <si>
-    <t>Villa</t>
-  </si>
-  <si>
-    <t>laruevelyn@gmail.com</t>
-  </si>
-  <si>
-    <t>Lara Evelyn</t>
-  </si>
-  <si>
-    <t>Baranowski Calvet</t>
-  </si>
-  <si>
-    <t>villa.joseluisjr@gmail.com</t>
-  </si>
-  <si>
-    <t>José Luis Junior</t>
-  </si>
-  <si>
-    <t>capiedra@hotmail.com</t>
-  </si>
-  <si>
-    <t>Carlos Alfredo</t>
-  </si>
-  <si>
-    <t>Piedrahita Rodriguez</t>
-  </si>
-  <si>
-    <t>frankfeas@gmail.com</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Astudillo</t>
-  </si>
-  <si>
-    <t>juarezmariana18@gmail.com</t>
-  </si>
-  <si>
-    <t>Mariana</t>
-  </si>
-  <si>
-    <t>Juarez</t>
-  </si>
-  <si>
-    <t>sosamoncada30@gmail.com</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-  <si>
-    <t>sosa</t>
-  </si>
-  <si>
-    <t>prof.jahz@gmail.com</t>
-  </si>
-  <si>
-    <t>Jesús Alejandro</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>velortizca@gmail.com</t>
-  </si>
-  <si>
-    <t>Yesenia</t>
-  </si>
-  <si>
-    <t>Velásquez</t>
-  </si>
-  <si>
-    <t>maxabdeneve@gmail.com</t>
-  </si>
-  <si>
-    <t>Maximiliano</t>
-  </si>
-  <si>
-    <t>Abdeneve</t>
-  </si>
-  <si>
     <t>dra.gabrielapalmeyro@gmail.com</t>
   </si>
   <si>
@@ -546,72 +774,18 @@
     <t>Palmeyro</t>
   </si>
   <si>
-    <t>luzflor2007@gmail.com</t>
-  </si>
-  <si>
-    <t>Luz</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
     <t>laurabalejandro@gmail.com</t>
   </si>
   <si>
     <t>Laura Beatriz</t>
   </si>
   <si>
-    <t>antodileti@gmail.com</t>
-  </si>
-  <si>
-    <t>Leticia Antonela</t>
-  </si>
-  <si>
-    <t>Dimotta</t>
-  </si>
-  <si>
-    <t>giulianodesanta@gmail.com</t>
-  </si>
-  <si>
-    <t>Giuliano</t>
-  </si>
-  <si>
-    <t>Gullo</t>
-  </si>
-  <si>
-    <t>mcortegana@hotmail.com</t>
-  </si>
-  <si>
-    <t>martin</t>
-  </si>
-  <si>
-    <t>cortegana</t>
-  </si>
-  <si>
-    <t>german_bogado@yahoo.com.ar</t>
-  </si>
-  <si>
-    <t>German Eduardo</t>
-  </si>
-  <si>
-    <t>Bogado</t>
-  </si>
-  <si>
     <t>nicolasmartinalvarez85@gmail.com</t>
   </si>
   <si>
     <t>Alvarez</t>
   </si>
   <si>
-    <t>santiago.avalos@outlook.com</t>
-  </si>
-  <si>
-    <t>Santiago Germán</t>
-  </si>
-  <si>
-    <t>Avalos</t>
-  </si>
-  <si>
     <t>embkkr@gmail.com</t>
   </si>
   <si>
@@ -621,60 +795,6 @@
     <t>Kim</t>
   </si>
   <si>
-    <t>leslietovaraguilar@gmail.com</t>
-  </si>
-  <si>
-    <t>LESLIE VIVIANA</t>
-  </si>
-  <si>
-    <t>TOVAR AGUILAR</t>
-  </si>
-  <si>
-    <t>enriquejgimeno@gmail.com</t>
-  </si>
-  <si>
-    <t>Enrique</t>
-  </si>
-  <si>
-    <t>Gimeno</t>
-  </si>
-  <si>
-    <t>miyashiro.kevin@gmail.com</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Miyashiro</t>
-  </si>
-  <si>
-    <t>camilaikkert@gmail.com</t>
-  </si>
-  <si>
-    <t>Camila Milena</t>
-  </si>
-  <si>
-    <t>Ikkert</t>
-  </si>
-  <si>
-    <t>barconadia38@gmail.com</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>Barco</t>
-  </si>
-  <si>
-    <t>lupalazzo@gmail.com</t>
-  </si>
-  <si>
-    <t>Lucía</t>
-  </si>
-  <si>
-    <t>Palazzo</t>
-  </si>
-  <si>
     <t>mariana.tapia203@gmail.com</t>
   </si>
   <si>
@@ -690,24 +810,6 @@
     <t>Martinez</t>
   </si>
   <si>
-    <t>cbritez6@gmail.com</t>
-  </si>
-  <si>
-    <t>Cecilia</t>
-  </si>
-  <si>
-    <t>Acevedo</t>
-  </si>
-  <si>
-    <t>mracca17@gmail.com</t>
-  </si>
-  <si>
-    <t>Marina Alejandra</t>
-  </si>
-  <si>
-    <t>Racca</t>
-  </si>
-  <si>
     <t>emilmarpatricia@gmail.com</t>
   </si>
   <si>
@@ -717,24 +819,6 @@
     <t>Cuarez</t>
   </si>
   <si>
-    <t>sebdelgado83@gmail.com</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Delgado</t>
-  </si>
-  <si>
-    <t>guerrerofabian1985@gmail.com</t>
-  </si>
-  <si>
-    <t>Fabian</t>
-  </si>
-  <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
     <t>germanlasserre@gmail.com</t>
   </si>
   <si>
@@ -744,66 +828,12 @@
     <t>Lasserre</t>
   </si>
   <si>
-    <t>michelettimatias@gmail.com</t>
-  </si>
-  <si>
-    <t>Matías</t>
-  </si>
-  <si>
-    <t>Micheletti</t>
-  </si>
-  <si>
-    <t>gallardomarina93@gmail.com</t>
-  </si>
-  <si>
-    <t>Marina</t>
-  </si>
-  <si>
-    <t>Gallardo</t>
-  </si>
-  <si>
-    <t>baqueiroramironahuel@gmail.com</t>
-  </si>
-  <si>
-    <t>Ramiro Nahuel</t>
-  </si>
-  <si>
-    <t>Baqueiro</t>
-  </si>
-  <si>
-    <t>alonso.maeuge@gmail.com</t>
-  </si>
-  <si>
-    <t>María Eugenia</t>
-  </si>
-  <si>
-    <t>Alonso</t>
-  </si>
-  <si>
     <t>edgar_eel@hotmail.com</t>
   </si>
   <si>
     <t>Edgar Eduardo</t>
   </si>
   <si>
-    <t>joaquinvcestudio@gmail.com</t>
-  </si>
-  <si>
-    <t>Joaquín</t>
-  </si>
-  <si>
-    <t>Vásquez Calizaya</t>
-  </si>
-  <si>
-    <t>onacho83@gmail.com</t>
-  </si>
-  <si>
-    <t>Omar Ignacio</t>
-  </si>
-  <si>
-    <t>Barboza</t>
-  </si>
-  <si>
     <t>santigiopo3@gmail.com</t>
   </si>
   <si>
@@ -811,33 +841,6 @@
   </si>
   <si>
     <t>Giordano</t>
-  </si>
-  <si>
-    <t>avkavrecic@gmail.com</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Kavrecic</t>
-  </si>
-  <si>
-    <t>villagranmceleste@gmail.com</t>
-  </si>
-  <si>
-    <t>Celeste</t>
-  </si>
-  <si>
-    <t>Villagran</t>
-  </si>
-  <si>
-    <t>ruben.humar@hotmail.com</t>
-  </si>
-  <si>
-    <t>Ruben</t>
-  </si>
-  <si>
-    <t>Humar</t>
   </si>
   <si>
     <t>lunaflorencia96@gmail.com</t>
@@ -1344,10 +1347,12 @@
       <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3">
-        <v>44824</v>
-      </c>
-      <c r="N1" s="5"/>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3">
+        <v>44826</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -1363,42 +1368,44 @@
         <v>22808</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -1414,42 +1421,44 @@
         <v>22808</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -1465,42 +1474,44 @@
         <v>22808</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -1516,42 +1527,44 @@
         <v>22808</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -1563,46 +1576,48 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>22808</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -1618,42 +1633,44 @@
         <v>22808</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -1665,46 +1682,48 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>22808</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>31</v>
+      <c r="B8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1720,42 +1739,44 @@
         <v>22808</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -1771,42 +1792,44 @@
         <v>22808</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -1822,42 +1845,44 @@
         <v>22808</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -1873,42 +1898,44 @@
         <v>22808</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -1924,42 +1951,44 @@
         <v>22808</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -1975,42 +2004,44 @@
         <v>22808</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -2026,42 +2057,44 @@
         <v>22808</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -2077,42 +2110,44 @@
         <v>22808</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -2128,42 +2163,44 @@
         <v>22808</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -2179,42 +2216,44 @@
         <v>22808</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -2230,42 +2269,44 @@
         <v>22808</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -2281,42 +2322,44 @@
         <v>22808</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -2332,42 +2375,44 @@
         <v>22808</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -2383,42 +2428,44 @@
         <v>22808</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -2434,42 +2481,44 @@
         <v>22808</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -2485,42 +2534,44 @@
         <v>22808</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -2536,42 +2587,44 @@
         <v>22808</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -2587,42 +2640,44 @@
         <v>22808</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -2638,42 +2693,44 @@
         <v>22808</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -2689,42 +2746,44 @@
         <v>22808</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -2740,42 +2799,44 @@
         <v>22808</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -2791,42 +2852,44 @@
         <v>22808</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -2842,42 +2905,44 @@
         <v>22808</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -2893,42 +2958,44 @@
         <v>22808</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -2944,42 +3011,44 @@
         <v>22808</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>31</v>
+        <v>122</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -2995,42 +3064,44 @@
         <v>22808</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -3046,42 +3117,44 @@
         <v>22808</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -3097,42 +3170,44 @@
         <v>22808</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -3148,42 +3223,44 @@
         <v>22808</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
@@ -3199,42 +3276,44 @@
         <v>22808</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>31</v>
+        <v>139</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
@@ -3250,42 +3329,44 @@
         <v>22808</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>31</v>
+        <v>142</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
@@ -3301,42 +3382,44 @@
         <v>22808</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N40" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -3352,42 +3435,44 @@
         <v>22808</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
@@ -3403,42 +3488,44 @@
         <v>22808</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
@@ -3454,42 +3541,44 @@
         <v>22808</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>12</v>
+        <v>153</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -3505,42 +3594,44 @@
         <v>22808</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N44" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
@@ -3556,42 +3647,44 @@
         <v>22808</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N45" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
@@ -3607,42 +3700,44 @@
         <v>22808</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
@@ -3658,42 +3753,44 @@
         <v>22808</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N47" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
@@ -3709,42 +3806,44 @@
         <v>22808</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -3760,42 +3859,44 @@
         <v>22808</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>31</v>
+        <v>171</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
@@ -3811,42 +3912,44 @@
         <v>22808</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
@@ -3862,42 +3965,44 @@
         <v>22808</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -3913,42 +4018,44 @@
         <v>22808</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>12</v>
+        <v>180</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
@@ -3964,42 +4071,44 @@
         <v>22808</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -4015,42 +4124,44 @@
         <v>22808</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
@@ -4066,42 +4177,44 @@
         <v>22808</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>12</v>
+        <v>189</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -4117,42 +4230,44 @@
         <v>22808</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N56" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -4168,42 +4283,44 @@
         <v>22808</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -4219,42 +4336,44 @@
         <v>22808</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>31</v>
+        <v>198</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -4270,42 +4389,44 @@
         <v>22808</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -4321,42 +4442,44 @@
         <v>22808</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N60" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
@@ -4372,42 +4495,44 @@
         <v>22808</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>31</v>
+        <v>213</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
@@ -4423,42 +4548,44 @@
         <v>22808</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
@@ -4474,42 +4601,44 @@
         <v>22808</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
@@ -4525,42 +4654,44 @@
         <v>22808</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N64" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
@@ -4576,42 +4707,44 @@
         <v>22808</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N65" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
@@ -4627,42 +4760,44 @@
         <v>22808</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N66" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
@@ -4678,42 +4813,44 @@
         <v>22808</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
@@ -4729,42 +4866,44 @@
         <v>22808</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N68" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
@@ -4780,42 +4919,44 @@
         <v>22808</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N69" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
@@ -4831,42 +4972,44 @@
         <v>22808</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N70" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
@@ -4882,42 +5025,44 @@
         <v>22808</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N71" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
@@ -4933,42 +5078,44 @@
         <v>22808</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N72" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
@@ -4984,42 +5131,44 @@
         <v>22808</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N73" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
@@ -5035,42 +5184,44 @@
         <v>22808</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N74" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N74" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
@@ -5086,42 +5237,44 @@
         <v>22808</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N75" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
@@ -5137,42 +5290,44 @@
         <v>22808</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N76" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
@@ -5188,42 +5343,44 @@
         <v>22808</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N77" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
@@ -5239,42 +5396,44 @@
         <v>22808</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>12</v>
+        <v>125</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N78" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
@@ -5290,42 +5449,44 @@
         <v>22808</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L79" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N79" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
@@ -5341,42 +5502,44 @@
         <v>22808</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N80" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
@@ -5392,93 +5555,97 @@
         <v>22808</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>22808</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M82" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N82" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
@@ -5494,42 +5661,44 @@
         <v>22808</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N83" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
@@ -5545,42 +5714,44 @@
         <v>22808</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N84" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N84" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
@@ -5596,93 +5767,97 @@
         <v>22808</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K85" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N85" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
     </row>
     <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>22808</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>31</v>
+        <v>253</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K86" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N86" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
@@ -5698,42 +5873,44 @@
         <v>22808</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>31</v>
+        <v>261</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N87" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N87" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
@@ -5749,42 +5926,44 @@
         <v>22808</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>31</v>
+        <v>264</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N88" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N88" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
@@ -5800,42 +5979,44 @@
         <v>22808</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>12</v>
+        <v>267</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N89" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
@@ -5851,42 +6032,44 @@
         <v>22808</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>262</v>
+        <v>47</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J90" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N90" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
@@ -5902,42 +6085,44 @@
         <v>22808</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N91" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N91" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
@@ -5953,42 +6138,44 @@
         <v>22808</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N92" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N92" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
@@ -6004,42 +6191,44 @@
         <v>22808</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N93" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
@@ -6055,42 +6244,44 @@
         <v>22808</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
@@ -6106,42 +6297,44 @@
         <v>22808</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N95" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
@@ -6157,42 +6350,44 @@
         <v>22808</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N96" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
@@ -6855,7 +7050,7 @@
     </row>
     <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -28633,7 +28828,7 @@
   </sheetData>
   <autoFilter ref="A1:W993">
     <sortState ref="A2:Z993">
-      <sortCondition ref="M1:M993"/>
+      <sortCondition ref="N1:N993"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/22808.xlsx
+++ b/22808.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#22808" sheetId="1" r:id="rId1"/>
+    <sheet name="GRUPOS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22808'!$A$1:$AA$992</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GRUPOS!$A$1:$F$97</definedName>
     <definedName name="Z_5F0BD378_583E_470D_BE9F_6C6808C9F387_.wvu.FilterData" localSheetId="0" hidden="1">'#22808'!$A$1:$AA$990</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="300">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -918,6 +920,15 @@
   <si>
     <t>Warno</t>
   </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>REPOSITORIO</t>
+  </si>
 </sst>
 </file>
 
@@ -962,7 +973,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,8 +1016,14 @@
         <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1066,11 +1083,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1166,6 +1357,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1385,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D97" sqref="A1:D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34369,4 +34620,1499 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="40"/>
+    <col min="5" max="5" width="15.21875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="40" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="47">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="49">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="49">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="53">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="47">
+        <v>2</v>
+      </c>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="49">
+        <v>2</v>
+      </c>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="49">
+        <v>2</v>
+      </c>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="49">
+        <v>2</v>
+      </c>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="49">
+        <v>2</v>
+      </c>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="49">
+        <v>2</v>
+      </c>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="49">
+        <v>2</v>
+      </c>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="49">
+        <v>2</v>
+      </c>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="49">
+        <v>2</v>
+      </c>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="49">
+        <v>2</v>
+      </c>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="53">
+        <v>2</v>
+      </c>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="47">
+        <v>3</v>
+      </c>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="49">
+        <v>3</v>
+      </c>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="49">
+        <v>3</v>
+      </c>
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="49">
+        <v>3</v>
+      </c>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="49">
+        <v>3</v>
+      </c>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="49">
+        <v>3</v>
+      </c>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="49">
+        <v>3</v>
+      </c>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" s="49">
+        <v>3</v>
+      </c>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="49">
+        <v>3</v>
+      </c>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="53">
+        <v>3</v>
+      </c>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="47">
+        <v>4</v>
+      </c>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="49">
+        <v>4</v>
+      </c>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="49">
+        <v>4</v>
+      </c>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="49">
+        <v>4</v>
+      </c>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="49">
+        <v>4</v>
+      </c>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="49">
+        <v>4</v>
+      </c>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="49">
+        <v>4</v>
+      </c>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="49">
+        <v>4</v>
+      </c>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="49">
+        <v>4</v>
+      </c>
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="49">
+        <v>4</v>
+      </c>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="53">
+        <v>4</v>
+      </c>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="47">
+        <v>5</v>
+      </c>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="49">
+        <v>5</v>
+      </c>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="49">
+        <v>5</v>
+      </c>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="49">
+        <v>5</v>
+      </c>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="49">
+        <v>5</v>
+      </c>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="49">
+        <v>5</v>
+      </c>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="49">
+        <v>5</v>
+      </c>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="49">
+        <v>5</v>
+      </c>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="49">
+        <v>5</v>
+      </c>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="53">
+        <v>5</v>
+      </c>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="47">
+        <v>6</v>
+      </c>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="49">
+        <v>6</v>
+      </c>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="49">
+        <v>6</v>
+      </c>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="49">
+        <v>6</v>
+      </c>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="49">
+        <v>6</v>
+      </c>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="49">
+        <v>6</v>
+      </c>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="49">
+        <v>6</v>
+      </c>
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="49">
+        <v>6</v>
+      </c>
+      <c r="E62" s="42"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="49">
+        <v>6</v>
+      </c>
+      <c r="E63" s="42"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="49">
+        <v>6</v>
+      </c>
+      <c r="E64" s="42"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="53">
+        <v>6</v>
+      </c>
+      <c r="E65" s="42"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="47">
+        <v>7</v>
+      </c>
+      <c r="E66" s="42"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="49">
+        <v>7</v>
+      </c>
+      <c r="E67" s="42"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="49">
+        <v>7</v>
+      </c>
+      <c r="E68" s="42"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="49">
+        <v>7</v>
+      </c>
+      <c r="E69" s="42"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="49">
+        <v>7</v>
+      </c>
+      <c r="E70" s="42"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="49">
+        <v>7</v>
+      </c>
+      <c r="E71" s="42"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="49">
+        <v>7</v>
+      </c>
+      <c r="E72" s="42"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="49">
+        <v>7</v>
+      </c>
+      <c r="E73" s="42"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="49">
+        <v>7</v>
+      </c>
+      <c r="E74" s="42"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="49">
+        <v>7</v>
+      </c>
+      <c r="E75" s="42"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="53">
+        <v>7</v>
+      </c>
+      <c r="E76" s="42"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="47">
+        <v>8</v>
+      </c>
+      <c r="E77" s="42"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="49">
+        <v>8</v>
+      </c>
+      <c r="E78" s="42"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="49">
+        <v>8</v>
+      </c>
+      <c r="E79" s="42"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="49">
+        <v>8</v>
+      </c>
+      <c r="E80" s="42"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="49">
+        <v>8</v>
+      </c>
+      <c r="E81" s="42"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="49">
+        <v>8</v>
+      </c>
+      <c r="E82" s="42"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="49">
+        <v>8</v>
+      </c>
+      <c r="E83" s="42"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="49">
+        <v>8</v>
+      </c>
+      <c r="E84" s="42"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" s="49">
+        <v>8</v>
+      </c>
+      <c r="E85" s="42"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="49">
+        <v>8</v>
+      </c>
+      <c r="E86" s="42"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="53">
+        <v>8</v>
+      </c>
+      <c r="E87" s="42"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="47">
+        <v>9</v>
+      </c>
+      <c r="E88" s="42"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="49">
+        <v>9</v>
+      </c>
+      <c r="E89" s="42"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="49">
+        <v>9</v>
+      </c>
+      <c r="E90" s="42"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="49">
+        <v>9</v>
+      </c>
+      <c r="E91" s="42"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="49">
+        <v>9</v>
+      </c>
+      <c r="E92" s="42"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="49">
+        <v>9</v>
+      </c>
+      <c r="E93" s="42"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="49">
+        <v>9</v>
+      </c>
+      <c r="E94" s="42"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="49">
+        <v>9</v>
+      </c>
+      <c r="E95" s="42"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="49">
+        <v>9</v>
+      </c>
+      <c r="E96" s="42"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="53">
+        <v>9</v>
+      </c>
+      <c r="E97" s="42"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F97">
+    <sortState ref="A2:F97">
+      <sortCondition ref="D1:D97"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>